--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,30 @@
   </si>
   <si>
     <t>words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id:12,name:king;id:20,name:queen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id:7,name:jake;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id:6;id:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id:777;name:seven</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -486,9 +510,10 @@
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,8 +535,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -533,8 +561,11 @@
       <c r="G2" t="s">
         <v>24</v>
       </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -556,8 +587,11 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
@@ -579,8 +613,11 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
@@ -602,8 +639,11 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
@@ -624,6 +664,9 @@
       </c>
       <c r="G6" t="s">
         <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
